--- a/data/trans_orig/P14B24_2016_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B24_2016_2023-Provincia-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4642</v>
+        <v>4586</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003419245078803814</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01580085929101963</v>
+        <v>0.01561122996996196</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -763,19 +763,19 @@
         <v>20049</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12528</v>
+        <v>11998</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32500</v>
+        <v>31782</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06944398699677415</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04339355447158385</v>
+        <v>0.04155709748084576</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1125734673092913</v>
+        <v>0.1100846825078524</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -784,19 +784,19 @@
         <v>21053</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13223</v>
+        <v>13041</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32471</v>
+        <v>32513</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03614494320604447</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02270173617919073</v>
+        <v>0.02238855938436562</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05574753476616604</v>
+        <v>0.05582050445495862</v>
       </c>
     </row>
     <row r="5">
@@ -813,7 +813,7 @@
         <v>292757</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>289119</v>
+        <v>289175</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>293761</v>
@@ -822,7 +822,7 @@
         <v>0.9965807549211961</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9841991407089797</v>
+        <v>0.9843887700300351</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -834,19 +834,19 @@
         <v>268654</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>256203</v>
+        <v>256921</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>276175</v>
+        <v>276705</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9305560130032259</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8874265326907088</v>
+        <v>0.8899153174921481</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9566064455284162</v>
+        <v>0.9584429025191544</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>524</v>
@@ -855,19 +855,19 @@
         <v>561411</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>549993</v>
+        <v>549951</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>569241</v>
+        <v>569423</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9638550567939556</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9442524652338339</v>
+        <v>0.9441794955450414</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9772982638208092</v>
+        <v>0.9776114406156344</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>9454</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4297</v>
+        <v>4365</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17638</v>
+        <v>17397</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01881088198156833</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008549792542407465</v>
+        <v>0.008685909967751615</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03509505755571515</v>
+        <v>0.03461523938053952</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -980,19 +980,19 @@
         <v>30664</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21613</v>
+        <v>20453</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43480</v>
+        <v>43766</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05862107349245849</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04131849517767593</v>
+        <v>0.0391008478442051</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08312204583754861</v>
+        <v>0.08366891429795925</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -1001,19 +1001,19 @@
         <v>40118</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28818</v>
+        <v>27829</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54142</v>
+        <v>53458</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03911399137357225</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02809730173190652</v>
+        <v>0.02713274536495577</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05278710850564775</v>
+        <v>0.05212041717838554</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>493121</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>484937</v>
+        <v>485178</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>498278</v>
+        <v>498210</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9811891180184317</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9649049424442845</v>
+        <v>0.9653847606194601</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9914502074575924</v>
+        <v>0.9913140900322485</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>456</v>
@@ -1051,19 +1051,19 @@
         <v>492420</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>479604</v>
+        <v>479318</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>501471</v>
+        <v>502631</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9413789265075415</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9168779541624513</v>
+        <v>0.9163310857020407</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9586815048223235</v>
+        <v>0.9608991521557949</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>922</v>
@@ -1072,19 +1072,19 @@
         <v>985541</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>971517</v>
+        <v>972201</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>996841</v>
+        <v>997830</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9608860086264277</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9472128914943523</v>
+        <v>0.9478795828216144</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9719026982680935</v>
+        <v>0.9728672546350442</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>2900</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7895</v>
+        <v>7844</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009103122596429356</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002921328746082616</v>
+        <v>0.002939768792462259</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0247837266906361</v>
+        <v>0.02462193824170184</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1197,19 +1197,19 @@
         <v>7569</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3018</v>
+        <v>3010</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15643</v>
+        <v>15806</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0225047225981293</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008974790074269462</v>
+        <v>0.008950715945871603</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0465141565766208</v>
+        <v>0.04699831381399089</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1218,19 +1218,19 @@
         <v>10468</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5016</v>
+        <v>4952</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19045</v>
+        <v>18457</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0159854827519495</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007659232193631861</v>
+        <v>0.007562220693420527</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02908148758036937</v>
+        <v>0.02818476234234746</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>315665</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>310670</v>
+        <v>310721</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317634</v>
+        <v>317628</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9908968774035707</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9752162733093639</v>
+        <v>0.9753780617582983</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9970786712539174</v>
+        <v>0.9970602312075377</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>325</v>
@@ -1268,19 +1268,19 @@
         <v>328740</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>320666</v>
+        <v>320503</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>333291</v>
+        <v>333299</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9774952774018707</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9534858434233804</v>
+        <v>0.953001686186009</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9910252099257315</v>
+        <v>0.9910492840541284</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>657</v>
@@ -1289,19 +1289,19 @@
         <v>644406</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>635829</v>
+        <v>636417</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>649858</v>
+        <v>649922</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9840145172480504</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9709185124196307</v>
+        <v>0.9718152376576525</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9923407678063682</v>
+        <v>0.9924377793065795</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>3908</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>978</v>
+        <v>1013</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9612</v>
+        <v>9694</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01058913380337158</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002649218346136397</v>
+        <v>0.002744100760161438</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0260452593902631</v>
+        <v>0.02626706934804101</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1414,19 +1414,19 @@
         <v>10488</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5218</v>
+        <v>5355</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18004</v>
+        <v>17869</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02708041686616022</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01347344659968482</v>
+        <v>0.0138267738071279</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04648824897554314</v>
+        <v>0.04613834355083047</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1435,19 +1435,19 @@
         <v>14396</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8082</v>
+        <v>8608</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23027</v>
+        <v>23163</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01903341417640662</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01068597973856121</v>
+        <v>0.01138082173488545</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03044493419899453</v>
+        <v>0.03062428080490846</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>365155</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>359451</v>
+        <v>359369</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>368085</v>
+        <v>368050</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9894108661966284</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9739547406097369</v>
+        <v>0.9737329306519589</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9973507816538636</v>
+        <v>0.9972558992398385</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>348</v>
@@ -1485,19 +1485,19 @@
         <v>376795</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>369279</v>
+        <v>369414</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>382065</v>
+        <v>381928</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9729195831338397</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9535117510244554</v>
+        <v>0.9538616564491696</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9865265534003151</v>
+        <v>0.9861732261928721</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>697</v>
@@ -1506,19 +1506,19 @@
         <v>741950</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>733319</v>
+        <v>733183</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>748264</v>
+        <v>747738</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9809665858235934</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9695550658010055</v>
+        <v>0.9693757191950916</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9893140202614388</v>
+        <v>0.9886191782651146</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>4877</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1798</v>
+        <v>1858</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10073</v>
+        <v>10952</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02309176973854794</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008510919807775909</v>
+        <v>0.008796242677449577</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04768875926375608</v>
+        <v>0.05184908357289682</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -1631,19 +1631,19 @@
         <v>12855</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7647</v>
+        <v>6836</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21901</v>
+        <v>20775</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05881115870161357</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03498379453872559</v>
+        <v>0.03127476109871513</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1001934441709959</v>
+        <v>0.09504021373279282</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -1652,19 +1652,19 @@
         <v>17733</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9840</v>
+        <v>10650</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26381</v>
+        <v>27246</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04125754168067167</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02289491342202528</v>
+        <v>0.02477740849092259</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06137765723908618</v>
+        <v>0.06339154697375164</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>206344</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>201148</v>
+        <v>200269</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>209423</v>
+        <v>209363</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.976908230261452</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9523112407362448</v>
+        <v>0.9481509164271031</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9914890801922241</v>
+        <v>0.9912037573225504</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>210</v>
@@ -1702,19 +1702,19 @@
         <v>205732</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>196686</v>
+        <v>197812</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>210940</v>
+        <v>211751</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9411888412983864</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8998065558290042</v>
+        <v>0.9049597862672076</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9650162054612744</v>
+        <v>0.9687252389012849</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>417</v>
@@ -1723,19 +1723,19 @@
         <v>412075</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>403427</v>
+        <v>402562</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>419968</v>
+        <v>419158</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9587424583193284</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9386223427609138</v>
+        <v>0.9366084530262484</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9771050865779747</v>
+        <v>0.9752225915090774</v>
       </c>
     </row>
     <row r="18">
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4458</v>
+        <v>4926</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003650720876874693</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01694094133261031</v>
+        <v>0.01871986603718593</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1848,19 +1848,19 @@
         <v>9227</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5079</v>
+        <v>4241</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17630</v>
+        <v>16688</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03378441377391752</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01859540745358462</v>
+        <v>0.01552655078313956</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0645526748909617</v>
+        <v>0.06110161111582852</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -1869,19 +1869,19 @@
         <v>10188</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5074</v>
+        <v>5105</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17901</v>
+        <v>18651</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01899831570339739</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009462288622193888</v>
+        <v>0.009519636255901041</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0333823374665585</v>
+        <v>0.03478161725542925</v>
       </c>
     </row>
     <row r="20">
@@ -1898,7 +1898,7 @@
         <v>262162</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>258665</v>
+        <v>258197</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>263123</v>
@@ -1907,7 +1907,7 @@
         <v>0.9963492791231253</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9830590586673897</v>
+        <v>0.9812801339628147</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1919,19 +1919,19 @@
         <v>263888</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>255485</v>
+        <v>256427</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>268036</v>
+        <v>268874</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9662155862260825</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9354473251090383</v>
+        <v>0.9388983888841698</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9814045925464153</v>
+        <v>0.9844734492168604</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>512</v>
@@ -1940,19 +1940,19 @@
         <v>526050</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>518337</v>
+        <v>517587</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>531164</v>
+        <v>531133</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9810016842966026</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9666176625334417</v>
+        <v>0.9652183827445705</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9905377113778061</v>
+        <v>0.990480363744099</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>4121</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>989</v>
+        <v>913</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10543</v>
+        <v>9821</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006276687536370289</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001505968959229312</v>
+        <v>0.001390933073636865</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01605831072784022</v>
+        <v>0.01495801977120383</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -2065,19 +2065,19 @@
         <v>23214</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13403</v>
+        <v>14797</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35358</v>
+        <v>36810</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03357996641776476</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01938872021144776</v>
+        <v>0.02140520619382973</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05114705249980433</v>
+        <v>0.05324738242988647</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>24</v>
@@ -2086,19 +2086,19 @@
         <v>27335</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17485</v>
+        <v>18279</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>40371</v>
+        <v>41072</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02028014853824353</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01297259095968003</v>
+        <v>0.01356122597151439</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02995203775274569</v>
+        <v>0.03047238781146161</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>652437</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>646015</v>
+        <v>646737</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>655569</v>
+        <v>655645</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9937233124636297</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9839416892721597</v>
+        <v>0.9850419802287962</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9984940310407706</v>
+        <v>0.9986090669263631</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>626</v>
@@ -2136,19 +2136,19 @@
         <v>668080</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>655936</v>
+        <v>654484</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>677891</v>
+        <v>676497</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9664200335822353</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9488529475001963</v>
+        <v>0.9467526175701135</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9806112797885523</v>
+        <v>0.9785947938061703</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1202</v>
@@ -2157,19 +2157,19 @@
         <v>1320517</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1307481</v>
+        <v>1306780</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1330367</v>
+        <v>1329573</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9797198514617564</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9700479622472548</v>
+        <v>0.9695276121885383</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.98702740904032</v>
+        <v>0.9864387740284858</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>9894</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4908</v>
+        <v>4959</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17283</v>
+        <v>17357</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01270756811054697</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006304350219308734</v>
+        <v>0.006369601751017523</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02219812441402663</v>
+        <v>0.02229322225010196</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -2282,19 +2282,19 @@
         <v>32642</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22686</v>
+        <v>22183</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>46753</v>
+        <v>46255</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03951046655225433</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02745957434467906</v>
+        <v>0.0268508027712612</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05658985943937006</v>
+        <v>0.05598790812368839</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>38</v>
@@ -2303,19 +2303,19 @@
         <v>42536</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>29818</v>
+        <v>30428</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>57938</v>
+        <v>55372</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0265063967549203</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01858112278504542</v>
+        <v>0.0189609686981802</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03610417090890925</v>
+        <v>0.03450537268808417</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>768689</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>761300</v>
+        <v>761226</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>773675</v>
+        <v>773624</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.987292431889453</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9778018755859734</v>
+        <v>0.9777067777498982</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9936956497806912</v>
+        <v>0.9936303982489826</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>727</v>
@@ -2353,19 +2353,19 @@
         <v>793525</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>779414</v>
+        <v>779912</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>803481</v>
+        <v>803984</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9604895334477457</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9434101405606298</v>
+        <v>0.9440120918763111</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9725404256553205</v>
+        <v>0.9731491972287386</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1467</v>
@@ -2374,19 +2374,19 @@
         <v>1562214</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1546812</v>
+        <v>1549378</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1574932</v>
+        <v>1574322</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9734936032450797</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9638958290910902</v>
+        <v>0.9654946273119158</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9814188772149544</v>
+        <v>0.9810390313018198</v>
       </c>
     </row>
     <row r="27">
@@ -2478,19 +2478,19 @@
         <v>37119</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>26988</v>
+        <v>26179</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>50787</v>
+        <v>50011</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01093851061833929</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007952965379697339</v>
+        <v>0.007714488658332254</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01496627704010875</v>
+        <v>0.01473740200981383</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>133</v>
@@ -2499,19 +2499,19 @@
         <v>146707</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>122285</v>
+        <v>125085</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>174112</v>
+        <v>171797</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0413895551865695</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03449938085700111</v>
+        <v>0.03528950579813325</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04912126268559613</v>
+        <v>0.04846791593200658</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>170</v>
@@ -2520,19 +2520,19 @@
         <v>183826</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>158506</v>
+        <v>155261</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>212038</v>
+        <v>212102</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02649560900372193</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02284612833615389</v>
+        <v>0.02237838292935024</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03056191710510126</v>
+        <v>0.03057112891578916</v>
       </c>
     </row>
     <row r="29">
@@ -2549,19 +2549,19 @@
         <v>3356330</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3342662</v>
+        <v>3343438</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3366461</v>
+        <v>3367270</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9890614893816607</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9850337229598913</v>
+        <v>0.9852625979901863</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9920470346203027</v>
+        <v>0.9922855113416679</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3205</v>
@@ -2570,19 +2570,19 @@
         <v>3397835</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3370430</v>
+        <v>3372745</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3422257</v>
+        <v>3419457</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9586104448134305</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.950878737314404</v>
+        <v>0.9515320840679935</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9655006191429989</v>
+        <v>0.9647104942018668</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6398</v>
@@ -2591,19 +2591,19 @@
         <v>6754165</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6725953</v>
+        <v>6725889</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6779485</v>
+        <v>6782730</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9735043909962781</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9694380828948986</v>
+        <v>0.9694288710842109</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9771538716638459</v>
+        <v>0.9776216170706498</v>
       </c>
     </row>
     <row r="30">
@@ -2942,16 +2942,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5336</v>
+        <v>4780</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.003255057850909572</v>
+        <v>0.003255057850909573</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01673472696820496</v>
+        <v>0.01499116431534434</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -2960,19 +2960,19 @@
         <v>4519</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2071</v>
+        <v>2433</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8011</v>
+        <v>8271</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01429932273513767</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006551842626290503</v>
+        <v>0.007697490415095015</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02534652244403144</v>
+        <v>0.02616800736331647</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -2981,19 +2981,19 @@
         <v>5557</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2673</v>
+        <v>2914</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10207</v>
+        <v>10223</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.008752970735582283</v>
+        <v>0.008752970735582281</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004210593463218991</v>
+        <v>0.00458893585902131</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01607571813640927</v>
+        <v>0.0161021787619245</v>
       </c>
     </row>
     <row r="5">
@@ -3010,16 +3010,16 @@
         <v>317807</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>313509</v>
+        <v>314065</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>318845</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9967449421490904</v>
+        <v>0.9967449421490905</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.983265273031795</v>
+        <v>0.9850088356846558</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -3031,19 +3031,19 @@
         <v>311542</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>308050</v>
+        <v>307790</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>313990</v>
+        <v>313628</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9857006772648623</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9746534775559685</v>
+        <v>0.9738319926366836</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9934481573737095</v>
+        <v>0.992302509584905</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>859</v>
@@ -3052,19 +3052,19 @@
         <v>629349</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>624699</v>
+        <v>624683</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>632233</v>
+        <v>631992</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9912470292644179</v>
+        <v>0.9912470292644177</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9839242818635907</v>
+        <v>0.9838978212380759</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9957894065367812</v>
+        <v>0.9954110641409787</v>
       </c>
     </row>
     <row r="6">
@@ -3156,19 +3156,19 @@
         <v>14678</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7191</v>
+        <v>7776</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24712</v>
+        <v>25529</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02771240367622201</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0135757679124576</v>
+        <v>0.01468191206876746</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04665634692942387</v>
+        <v>0.04819926405614059</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>67</v>
@@ -3177,19 +3177,19 @@
         <v>45870</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36199</v>
+        <v>35819</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>57616</v>
+        <v>57550</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.0841579085508571</v>
+        <v>0.08415790855085707</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0664158158312354</v>
+        <v>0.06571801509215332</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1057103148703236</v>
+        <v>0.1055882561693438</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>79</v>
@@ -3198,19 +3198,19 @@
         <v>60548</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>48043</v>
+        <v>47545</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>74625</v>
+        <v>76131</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05633909333883388</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04470339570282122</v>
+        <v>0.04424000366518201</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06943775993243771</v>
+        <v>0.07083965375453473</v>
       </c>
     </row>
     <row r="8">
@@ -3227,19 +3227,19 @@
         <v>514982</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>504948</v>
+        <v>504131</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>522469</v>
+        <v>521884</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.972287596323778</v>
+        <v>0.9722875963237779</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9533436530705766</v>
+        <v>0.9518007359438594</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9864242320875428</v>
+        <v>0.9853180879312324</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>648</v>
@@ -3248,19 +3248,19 @@
         <v>499171</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>487425</v>
+        <v>487491</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>508842</v>
+        <v>509222</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9158420914491426</v>
+        <v>0.9158420914491429</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8942896851296764</v>
+        <v>0.8944117438306561</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9335841841687644</v>
+        <v>0.9342819849078466</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1017</v>
@@ -3269,19 +3269,19 @@
         <v>1014153</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1000076</v>
+        <v>998570</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1026658</v>
+        <v>1027156</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9436609066611661</v>
+        <v>0.9436609066611662</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9305622400675619</v>
+        <v>0.9291603462454652</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9552966042971783</v>
+        <v>0.9557599963348181</v>
       </c>
     </row>
     <row r="9">
@@ -3373,19 +3373,19 @@
         <v>15797</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9738</v>
+        <v>9658</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24266</v>
+        <v>25132</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0499919267858519</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0308186904768906</v>
+        <v>0.03056339991910446</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0767940387224694</v>
+        <v>0.0795346924877325</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -3394,19 +3394,19 @@
         <v>17491</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11787</v>
+        <v>12056</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23997</v>
+        <v>24756</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04908007603200561</v>
+        <v>0.0490800760320056</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03307457291484021</v>
+        <v>0.03382852272601481</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06733510892871122</v>
+        <v>0.06946574935261354</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -3415,19 +3415,19 @@
         <v>33288</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25492</v>
+        <v>24825</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45367</v>
+        <v>43830</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04950861508388596</v>
+        <v>0.04950861508388595</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03791338988211575</v>
+        <v>0.03692109704719879</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06747318953782909</v>
+        <v>0.06518701029718661</v>
       </c>
     </row>
     <row r="11">
@@ -3444,19 +3444,19 @@
         <v>300196</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>291727</v>
+        <v>290861</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>306255</v>
+        <v>306335</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.950008073214148</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9232059612775305</v>
+        <v>0.9204653075122677</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9691813095231092</v>
+        <v>0.9694366000808955</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>506</v>
@@ -3465,19 +3465,19 @@
         <v>338890</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>332384</v>
+        <v>331625</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>344594</v>
+        <v>344325</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9509199239679943</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9326648910712888</v>
+        <v>0.9305342506473864</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9669254270851597</v>
+        <v>0.9661714772739851</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>849</v>
@@ -3486,19 +3486,19 @@
         <v>639087</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>627008</v>
+        <v>628545</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>646883</v>
+        <v>647550</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9504913849161142</v>
+        <v>0.950491384916114</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9325268104621707</v>
+        <v>0.9348129897028133</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9620866101178843</v>
+        <v>0.9630789029528012</v>
       </c>
     </row>
     <row r="12">
@@ -3590,19 +3590,19 @@
         <v>12062</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6099</v>
+        <v>5650</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22006</v>
+        <v>22238</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03232516261005457</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01634480230624678</v>
+        <v>0.01514175110643466</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05897494465811501</v>
+        <v>0.05959496075439367</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -3611,19 +3611,19 @@
         <v>27728</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20148</v>
+        <v>20253</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36873</v>
+        <v>37056</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06571185067515689</v>
+        <v>0.0657118506751569</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04774824805891079</v>
+        <v>0.04799693740668921</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08738387708472244</v>
+        <v>0.08781759056563754</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -3632,19 +3632,19 @@
         <v>39790</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30260</v>
+        <v>28408</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54266</v>
+        <v>52643</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05004340729457073</v>
+        <v>0.05004340729457071</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03805773354302984</v>
+        <v>0.03572804171687383</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06825025681948731</v>
+        <v>0.06620901756017485</v>
       </c>
     </row>
     <row r="14">
@@ -3661,19 +3661,19 @@
         <v>361083</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>351139</v>
+        <v>350907</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>367046</v>
+        <v>367495</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9676748373899455</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9410250553418851</v>
+        <v>0.9404050392456063</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9836551976937532</v>
+        <v>0.9848582488935654</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>555</v>
@@ -3682,19 +3682,19 @@
         <v>394233</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>385088</v>
+        <v>384905</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>401813</v>
+        <v>401708</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9342881493248432</v>
+        <v>0.9342881493248433</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9126161229152775</v>
+        <v>0.9121824094343625</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.952251751941089</v>
+        <v>0.9520030625933107</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>836</v>
@@ -3703,19 +3703,19 @@
         <v>755317</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>740841</v>
+        <v>742464</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>764847</v>
+        <v>766699</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9499565927054292</v>
+        <v>0.9499565927054291</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9317497431805126</v>
+        <v>0.9337909824398252</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9619422664569702</v>
+        <v>0.9642719582831261</v>
       </c>
     </row>
     <row r="15">
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4716</v>
+        <v>4118</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006080105701093005</v>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02293246212992751</v>
+        <v>0.02002100292673514</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -3828,19 +3828,19 @@
         <v>7838</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4696</v>
+        <v>4725</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12367</v>
+        <v>11970</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03455396125167573</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02070154231378393</v>
+        <v>0.02083209989610247</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05452390830413446</v>
+        <v>0.05277173739268663</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -3849,19 +3849,19 @@
         <v>9088</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5959</v>
+        <v>5692</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14362</v>
+        <v>14154</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0210135463918006</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01377947702399271</v>
+        <v>0.01316178825930003</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03320709743751567</v>
+        <v>0.03272730054567827</v>
       </c>
     </row>
     <row r="17">
@@ -3878,16 +3878,16 @@
         <v>204415</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>200949</v>
+        <v>201547</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>205665</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9939198942989068</v>
+        <v>0.9939198942989071</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9770675378700742</v>
+        <v>0.9799789970732651</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3899,19 +3899,19 @@
         <v>218985</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>214456</v>
+        <v>214853</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>222127</v>
+        <v>222098</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9654460387483242</v>
+        <v>0.9654460387483241</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9454760916958656</v>
+        <v>0.9472282626073134</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9792984576862162</v>
+        <v>0.9791679001038975</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>750</v>
@@ -3920,19 +3920,19 @@
         <v>423400</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>418126</v>
+        <v>418334</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>426529</v>
+        <v>426796</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9789864536081992</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9667929025624843</v>
+        <v>0.9672726994543218</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9862205229760074</v>
+        <v>0.9868382117406999</v>
       </c>
     </row>
     <row r="18">
@@ -4024,19 +4024,19 @@
         <v>13987</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8731</v>
+        <v>8764</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21266</v>
+        <v>22098</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.05166969754452429</v>
+        <v>0.05166969754452431</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03225089753334003</v>
+        <v>0.03237323331187292</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07855710077860227</v>
+        <v>0.0816318834185953</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -4045,19 +4045,19 @@
         <v>16660</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11554</v>
+        <v>11208</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23232</v>
+        <v>23286</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.0633219548994433</v>
+        <v>0.06332195489944328</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04391386802900089</v>
+        <v>0.04259841000800998</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08830283410289487</v>
+        <v>0.08850749151060382</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>52</v>
@@ -4066,19 +4066,19 @@
         <v>30647</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22941</v>
+        <v>23062</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>39272</v>
+        <v>39879</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0574127926212692</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04297664614834313</v>
+        <v>0.04320257110467095</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07356904283143809</v>
+        <v>0.07470665812271556</v>
       </c>
     </row>
     <row r="20">
@@ -4095,19 +4095,19 @@
         <v>256720</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>249441</v>
+        <v>248609</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>261976</v>
+        <v>261943</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9483303024554757</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9214428992213977</v>
+        <v>0.9183681165814048</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9677491024666601</v>
+        <v>0.9676267666881271</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>428</v>
@@ -4116,19 +4116,19 @@
         <v>246439</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>239867</v>
+        <v>239813</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>251545</v>
+        <v>251891</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9366780451005569</v>
+        <v>0.9366780451005567</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.911697165897105</v>
+        <v>0.9114925084893961</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.956086131970999</v>
+        <v>0.95740158999199</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>778</v>
@@ -4137,19 +4137,19 @@
         <v>503159</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>494534</v>
+        <v>493927</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>510865</v>
+        <v>510744</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9425872073787309</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9264309571685619</v>
+        <v>0.9252933418772843</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9570233538516568</v>
+        <v>0.9567974288953288</v>
       </c>
     </row>
     <row r="21">
@@ -4241,19 +4241,19 @@
         <v>30499</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20017</v>
+        <v>19716</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45381</v>
+        <v>46109</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04262139927788455</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02797309150505229</v>
+        <v>0.02755251264591146</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06341851899577029</v>
+        <v>0.06443583651435413</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>92</v>
@@ -4262,19 +4262,19 @@
         <v>73897</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>58764</v>
+        <v>59673</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>91061</v>
+        <v>89783</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09588620326267505</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07624992593521132</v>
+        <v>0.07742912986206947</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1181568504227893</v>
+        <v>0.1164982901556824</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>117</v>
@@ -4283,19 +4283,19 @@
         <v>104397</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>86505</v>
+        <v>86751</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>127489</v>
+        <v>126405</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07024098000369734</v>
+        <v>0.07024098000369736</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05820257237555806</v>
+        <v>0.05836827074293603</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08577783948190408</v>
+        <v>0.0850490408155458</v>
       </c>
     </row>
     <row r="23">
@@ -4312,19 +4312,19 @@
         <v>685088</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>670206</v>
+        <v>669478</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>695570</v>
+        <v>695871</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9573786007221154</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9365814810042296</v>
+        <v>0.9355641634856444</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9720269084949478</v>
+        <v>0.9724474873540885</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>866</v>
@@ -4333,19 +4333,19 @@
         <v>696782</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>679618</v>
+        <v>680896</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>711915</v>
+        <v>711006</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9041137967373247</v>
+        <v>0.9041137967373251</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8818431495772104</v>
+        <v>0.8835017098443178</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9237500740647882</v>
+        <v>0.9225708701379306</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1436</v>
@@ -4354,19 +4354,19 @@
         <v>1381869</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1358777</v>
+        <v>1359861</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1399761</v>
+        <v>1399515</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9297590199963025</v>
+        <v>0.9297590199963028</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9142221605180958</v>
+        <v>0.9149509591844545</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9417974276244419</v>
+        <v>0.9416317292570641</v>
       </c>
     </row>
     <row r="24">
@@ -4458,19 +4458,19 @@
         <v>7715</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3766</v>
+        <v>3780</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15496</v>
+        <v>16047</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009667225477119767</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004718800536108556</v>
+        <v>0.004736040268034391</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01941673594006536</v>
+        <v>0.02010729232325511</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>46</v>
@@ -4479,19 +4479,19 @@
         <v>35756</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>26794</v>
+        <v>25840</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>49279</v>
+        <v>47730</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.04308601898516855</v>
+        <v>0.04308601898516856</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03228633203190998</v>
+        <v>0.03113630776045459</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05938065796212138</v>
+        <v>0.05751427137817719</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>54</v>
@@ -4500,19 +4500,19 @@
         <v>43472</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>33006</v>
+        <v>31191</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>56341</v>
+        <v>55275</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02670314003082476</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02027464952028443</v>
+        <v>0.01915990981570918</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03460822538622055</v>
+        <v>0.03395376421922335</v>
       </c>
     </row>
     <row r="26">
@@ -4529,19 +4529,19 @@
         <v>790357</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>782576</v>
+        <v>782025</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>794306</v>
+        <v>794292</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9903327745228803</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9805832640599348</v>
+        <v>0.9798927076767446</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9952811994638916</v>
+        <v>0.9952639597319656</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1014</v>
@@ -4550,19 +4550,19 @@
         <v>794128</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>780605</v>
+        <v>782154</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>803090</v>
+        <v>804044</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9569139810148314</v>
+        <v>0.9569139810148315</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9406193420378786</v>
+        <v>0.9424857286218226</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9677136679680899</v>
+        <v>0.9688636922395453</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1768</v>
@@ -4571,19 +4571,19 @@
         <v>1584484</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1571615</v>
+        <v>1572681</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1594950</v>
+        <v>1596765</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9732968599691751</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9653917746137797</v>
+        <v>0.9660462357807768</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9797253504797155</v>
+        <v>0.9808400901842907</v>
       </c>
     </row>
     <row r="27">
@@ -4675,19 +4675,19 @@
         <v>97027</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>76687</v>
+        <v>79309</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>119760</v>
+        <v>120173</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.02750463105231373</v>
+        <v>0.02750463105231374</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02173864881661075</v>
+        <v>0.02248195955556345</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03394857835998617</v>
+        <v>0.03406583205990691</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>337</v>
@@ -4696,19 +4696,19 @@
         <v>229760</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>203042</v>
+        <v>205419</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>255618</v>
+        <v>255050</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.06159888300802914</v>
+        <v>0.06159888300802915</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05443581681347748</v>
+        <v>0.05507327230463876</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06853150666453788</v>
+        <v>0.06837921980193296</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>434</v>
@@ -4717,19 +4717,19 @@
         <v>326787</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>298305</v>
+        <v>293209</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>362499</v>
+        <v>358311</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04502682629710286</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04110240475625365</v>
+        <v>0.0404003055875718</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04994751432828702</v>
+        <v>0.04937048627134535</v>
       </c>
     </row>
     <row r="29">
@@ -4746,19 +4746,19 @@
         <v>3430648</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3407915</v>
+        <v>3407502</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3450988</v>
+        <v>3448366</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9724953689476861</v>
+        <v>0.9724953689476863</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9660514216400138</v>
+        <v>0.965934167940093</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.978261351183389</v>
+        <v>0.9775180404444366</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5019</v>
@@ -4767,19 +4767,19 @@
         <v>3500170</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3474312</v>
+        <v>3474880</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3526888</v>
+        <v>3524511</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9384011169919707</v>
+        <v>0.9384011169919708</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9314684933354619</v>
+        <v>0.9316207801980664</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9455641831865224</v>
+        <v>0.9449267276953608</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8293</v>
@@ -4788,19 +4788,19 @@
         <v>6930818</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6895106</v>
+        <v>6899294</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6959300</v>
+        <v>6964396</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9549731737028971</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.950052485671713</v>
+        <v>0.9506295137286542</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9588975952437462</v>
+        <v>0.959599694412428</v>
       </c>
     </row>
     <row r="30">
